--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pramodya\git-tutorial\git-sample-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pramodya\git-tutorial\git-sample-repo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Invalid_Login</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Test123566</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +461,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Invalid_Login</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>git config user.email poonamyadav1271987@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,6 +472,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Invalid_Login</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>git config user.email poonamyadav1271987@gmail.com</t>
+  </si>
+  <si>
+    <t>Poonam Yadav</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +480,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Invalid_Login</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +485,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
